--- a/ConstructionCalculator.Business.Test/TestResource/RiskLevel.xlsx
+++ b/ConstructionCalculator.Business.Test/TestResource/RiskLevel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einst\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Construction Calculator\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,37 +35,48 @@
     <t>Blue</t>
   </si>
   <si>
-    <t>轻度火灾危险</t>
-  </si>
-  <si>
     <t>Yellow</t>
   </si>
   <si>
-    <t>中度火灾危险</t>
-  </si>
-  <si>
     <t>Brown</t>
   </si>
   <si>
-    <t>高度火灾危险</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
-    <t>严重火灾危险</t>
+    <t>轻度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -93,7 +104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,15 +419,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -430,7 +441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -441,10 +452,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.6</v>
       </c>
@@ -452,13 +463,13 @@
         <v>2.7</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.7</v>
       </c>
@@ -466,13 +477,13 @@
         <v>4.5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4.5</v>
       </c>
@@ -480,13 +491,14 @@
         <v>999</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>